--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -543,10 +543,10 @@
         <v>1.850333</v>
       </c>
       <c r="I2">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J2">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N2">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q2">
-        <v>3.264824584886223</v>
+        <v>2.718311463561556</v>
       </c>
       <c r="R2">
-        <v>29.383421263976</v>
+        <v>24.464803172054</v>
       </c>
       <c r="S2">
-        <v>0.2203388305316645</v>
+        <v>0.2704782426435794</v>
       </c>
       <c r="T2">
-        <v>0.2203388305316645</v>
+        <v>0.2704782426435794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.850333</v>
       </c>
       <c r="I3">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J3">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>10.74076</v>
       </c>
       <c r="O3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q3">
         <v>2.208220297008888</v>
@@ -635,10 +635,10 @@
         <v>19.87398267308</v>
       </c>
       <c r="S3">
-        <v>0.1490299601551732</v>
+        <v>0.2197229983801384</v>
       </c>
       <c r="T3">
-        <v>0.1490299601551731</v>
+        <v>0.2197229983801384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1.850333</v>
       </c>
       <c r="I4">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J4">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N4">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O4">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P4">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q4">
-        <v>3.600103279745778</v>
+        <v>2.208273134295667</v>
       </c>
       <c r="R4">
-        <v>32.400929517712</v>
+        <v>19.874458208661</v>
       </c>
       <c r="S4">
-        <v>0.2429663603136702</v>
+        <v>0.2197282558116967</v>
       </c>
       <c r="T4">
-        <v>0.2429663603136702</v>
+        <v>0.2197282558116967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.850333</v>
       </c>
       <c r="I5">
-        <v>0.7836323164322263</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="J5">
-        <v>0.7836323164322262</v>
+        <v>0.9179281773574478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N5">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q5">
-        <v>2.538159958793222</v>
+        <v>2.090390680383778</v>
       </c>
       <c r="R5">
-        <v>22.843439629139</v>
+        <v>18.813516123454</v>
       </c>
       <c r="S5">
-        <v>0.1712971654317183</v>
+        <v>0.2079986805220333</v>
       </c>
       <c r="T5">
-        <v>0.1712971654317183</v>
+        <v>0.2079986805220333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H6">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J6">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N6">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O6">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P6">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q6">
-        <v>0.9014464026995557</v>
+        <v>0.243043826116</v>
       </c>
       <c r="R6">
-        <v>8.113017624296001</v>
+        <v>2.187394435044</v>
       </c>
       <c r="S6">
-        <v>0.06083746339000261</v>
+        <v>0.02418341969065487</v>
       </c>
       <c r="T6">
-        <v>0.06083746339000261</v>
+        <v>0.02418341969065487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H7">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J7">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>10.74076</v>
       </c>
       <c r="O7">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P7">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q7">
-        <v>0.6097087887422222</v>
+        <v>0.19743665032</v>
       </c>
       <c r="R7">
-        <v>5.487379098679999</v>
+        <v>1.77692985288</v>
       </c>
       <c r="S7">
-        <v>0.04114846540247452</v>
+        <v>0.01964540080407869</v>
       </c>
       <c r="T7">
-        <v>0.04114846540247451</v>
+        <v>0.01964540080407869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H8">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J8">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N8">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O8">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P8">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q8">
-        <v>0.9940197601724446</v>
+        <v>0.197441374494</v>
       </c>
       <c r="R8">
-        <v>8.946177841552002</v>
+        <v>1.776972370446</v>
       </c>
       <c r="S8">
-        <v>0.06708512074298623</v>
+        <v>0.01964587087025712</v>
       </c>
       <c r="T8">
-        <v>0.06708512074298621</v>
+        <v>0.01964587087025713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1702976666666667</v>
+        <v>0.055146</v>
       </c>
       <c r="H9">
-        <v>0.510893</v>
+        <v>0.165438</v>
       </c>
       <c r="I9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="J9">
-        <v>0.2163676835677737</v>
+        <v>0.08207182264255215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N9">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O9">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P9">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q9">
-        <v>0.7008079928465555</v>
+        <v>0.186901521716</v>
       </c>
       <c r="R9">
-        <v>6.307271935618999</v>
+        <v>1.682113695444</v>
       </c>
       <c r="S9">
-        <v>0.04729663403231033</v>
+        <v>0.01859713127756147</v>
       </c>
       <c r="T9">
-        <v>0.04729663403231033</v>
+        <v>0.01859713127756147</v>
       </c>
     </row>
   </sheetData>
